--- a/data/compiled/benchmarks.xlsx
+++ b/data/compiled/benchmarks.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\test\Documents\research\research\data\compiled\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\codin\Documents\personal\projects\research\data\compiled\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7304848-6CB3-41E5-8A5E-3BF9400D5047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4190"/>
+    <workbookView xWindow="-84" yWindow="-84" windowWidth="23208" windowHeight="12528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="benchmarks" sheetId="1" r:id="rId1"/>
@@ -81,7 +82,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -654,17 +655,24 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Figure</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 1 - </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Average</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Benchmark Run Times over 15 Runs in Python 3.11.2</a:t>
+              <a:t> Benchmark Run Time in Python 3.11.2</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -849,7 +857,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -975,7 +982,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1130,7 +1136,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1326,7 +1331,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1452,7 +1456,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2665,7 +2668,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2695,7 +2704,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2975,24 +2990,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="20.08984375" customWidth="1"/>
-    <col min="3" max="3" width="28.1796875" customWidth="1"/>
-    <col min="4" max="4" width="24.453125" customWidth="1"/>
-    <col min="6" max="6" width="13.81640625" customWidth="1"/>
-    <col min="9" max="9" width="14.36328125" customWidth="1"/>
-    <col min="10" max="10" width="23.26953125" customWidth="1"/>
+    <col min="1" max="2" width="20.109375" customWidth="1"/>
+    <col min="3" max="3" width="28.21875" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="23.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3018,7 +3033,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3045,7 +3060,7 @@
         <v>3.5500141706549089E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3071,7 +3086,7 @@
         <v>0.28270705404399399</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -3098,7 +3113,7 @@
         <v>0.17036437410042862</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -3125,7 +3140,7 @@
         <v>2.1828228472241154E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -3152,7 +3167,7 @@
         <v>5.133907896643438E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -3179,7 +3194,7 @@
         <v>2.5479462018685849E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -3205,7 +3220,7 @@
         <v>4.6741244257650513E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -3231,7 +3246,7 @@
         <v>0.10973894948562733</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -3258,7 +3273,7 @@
         <v>2.0935196257793245E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -3285,7 +3300,7 @@
         <v>4.5990212135612808E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3312,7 +3327,7 @@
         <v>3.5890798680521092E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -3327,7 +3342,7 @@
         <v>2.0935196257793245E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -3342,7 +3357,7 @@
         <v>4.5990212135612808E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
